--- a/USB线贴标机/贴标机.xlsx
+++ b/USB线贴标机/贴标机.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="189">
   <si>
     <t>x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,472 +191,470 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
     <t>Y2</t>
   </si>
   <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>Y15</t>
+  </si>
+  <si>
+    <t>Y16</t>
+  </si>
+  <si>
+    <t>Y17</t>
+  </si>
+  <si>
+    <t>Y20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y21</t>
+  </si>
+  <si>
+    <t>Y22</t>
+  </si>
+  <si>
+    <t>Y23</t>
+  </si>
+  <si>
+    <t>Y24</t>
+  </si>
+  <si>
+    <t>Y25</t>
+  </si>
+  <si>
+    <t>Y26</t>
+  </si>
+  <si>
+    <t>Y27</t>
+  </si>
+  <si>
+    <t>映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>M40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M46</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>M50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>M52</t>
+  </si>
+  <si>
+    <t>M53</t>
+  </si>
+  <si>
+    <t>M54</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M56</t>
+  </si>
+  <si>
+    <t>M57</t>
+  </si>
+  <si>
+    <t>M100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>M110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M111</t>
+  </si>
+  <si>
+    <t>M112</t>
+  </si>
+  <si>
+    <t>M113</t>
+  </si>
+  <si>
+    <t>M114</t>
+  </si>
+  <si>
+    <t>M115</t>
+  </si>
+  <si>
+    <t>M116</t>
+  </si>
+  <si>
+    <t>M117</t>
+  </si>
+  <si>
+    <t>M120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M121</t>
+  </si>
+  <si>
+    <t>M122</t>
+  </si>
+  <si>
+    <t>M123</t>
+  </si>
+  <si>
+    <t>M124</t>
+  </si>
+  <si>
+    <t>M125</t>
+  </si>
+  <si>
+    <t>M126</t>
+  </si>
+  <si>
+    <t>M127</t>
+  </si>
+  <si>
+    <t>移栽脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送线脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱标脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱标方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移栽方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空吸启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>M62</t>
+  </si>
+  <si>
+    <t>M63</t>
+  </si>
+  <si>
+    <t>M64</t>
+  </si>
+  <si>
+    <t>M65</t>
+  </si>
+  <si>
+    <t>M66</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>M70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M71</t>
+  </si>
+  <si>
+    <t>M72</t>
+  </si>
+  <si>
+    <t>M73</t>
+  </si>
+  <si>
+    <t>M74</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M76</t>
+  </si>
+  <si>
+    <t>M77</t>
+  </si>
+  <si>
+    <t>M80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M82</t>
+  </si>
+  <si>
+    <t>M84</t>
+  </si>
+  <si>
+    <t>M85</t>
+  </si>
+  <si>
+    <t>M86</t>
+  </si>
+  <si>
+    <t>M87</t>
+  </si>
+  <si>
+    <t>移栽回原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合标气缸前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降气缸下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取线气缸前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取线爪开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破真空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送线方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线材感应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送线回原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移标前进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移标后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升降气缸上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压标气缸上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合标气缸后位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合标气缸前位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取线气缸前位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取线气缸后位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取线爪闭位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取线爪开位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y3</t>
-  </si>
-  <si>
-    <t>Y4</t>
-  </si>
-  <si>
-    <t>Y5</t>
-  </si>
-  <si>
-    <t>Y6</t>
-  </si>
-  <si>
-    <t>Y7</t>
-  </si>
-  <si>
-    <t>Y10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y11</t>
-  </si>
-  <si>
-    <t>Y12</t>
-  </si>
-  <si>
-    <t>Y13</t>
-  </si>
-  <si>
-    <t>Y14</t>
-  </si>
-  <si>
-    <t>Y15</t>
-  </si>
-  <si>
-    <t>Y16</t>
-  </si>
-  <si>
-    <t>Y17</t>
-  </si>
-  <si>
-    <t>Y20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y21</t>
-  </si>
-  <si>
-    <t>Y22</t>
-  </si>
-  <si>
-    <t>Y23</t>
-  </si>
-  <si>
-    <t>Y24</t>
-  </si>
-  <si>
-    <t>Y25</t>
-  </si>
-  <si>
-    <t>Y26</t>
-  </si>
-  <si>
-    <t>Y27</t>
-  </si>
-  <si>
-    <t>映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M31</t>
-  </si>
-  <si>
-    <t>M32</t>
-  </si>
-  <si>
-    <t>M33</t>
-  </si>
-  <si>
-    <t>M34</t>
-  </si>
-  <si>
-    <t>M35</t>
-  </si>
-  <si>
-    <t>M36</t>
-  </si>
-  <si>
-    <t>M37</t>
-  </si>
-  <si>
-    <t>M40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M41</t>
-  </si>
-  <si>
-    <t>M42</t>
-  </si>
-  <si>
-    <t>M43</t>
-  </si>
-  <si>
-    <t>M44</t>
-  </si>
-  <si>
-    <t>M45</t>
-  </si>
-  <si>
-    <t>M46</t>
-  </si>
-  <si>
-    <t>M47</t>
-  </si>
-  <si>
-    <t>M50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M51</t>
-  </si>
-  <si>
-    <t>M52</t>
-  </si>
-  <si>
-    <t>M53</t>
-  </si>
-  <si>
-    <t>M54</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
-    <t>M56</t>
-  </si>
-  <si>
-    <t>M57</t>
-  </si>
-  <si>
-    <t>M100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M101</t>
-  </si>
-  <si>
-    <t>M103</t>
-  </si>
-  <si>
-    <t>M104</t>
-  </si>
-  <si>
-    <t>M105</t>
-  </si>
-  <si>
-    <t>M106</t>
-  </si>
-  <si>
-    <t>M107</t>
-  </si>
-  <si>
-    <t>M110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M111</t>
-  </si>
-  <si>
-    <t>M112</t>
-  </si>
-  <si>
-    <t>M113</t>
-  </si>
-  <si>
-    <t>M114</t>
-  </si>
-  <si>
-    <t>M115</t>
-  </si>
-  <si>
-    <t>M116</t>
-  </si>
-  <si>
-    <t>M117</t>
-  </si>
-  <si>
-    <t>M120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M121</t>
-  </si>
-  <si>
-    <t>M122</t>
-  </si>
-  <si>
-    <t>M123</t>
-  </si>
-  <si>
-    <t>M124</t>
-  </si>
-  <si>
-    <t>M125</t>
-  </si>
-  <si>
-    <t>M126</t>
-  </si>
-  <si>
-    <t>M127</t>
-  </si>
-  <si>
-    <t>移栽脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送线脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脱标脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脱标方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移栽方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真空吸启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸣器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真空压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M61</t>
-  </si>
-  <si>
-    <t>M62</t>
-  </si>
-  <si>
-    <t>M63</t>
-  </si>
-  <si>
-    <t>M64</t>
-  </si>
-  <si>
-    <t>M65</t>
-  </si>
-  <si>
-    <t>M66</t>
-  </si>
-  <si>
-    <t>M67</t>
-  </si>
-  <si>
-    <t>M70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M71</t>
-  </si>
-  <si>
-    <t>M72</t>
-  </si>
-  <si>
-    <t>M73</t>
-  </si>
-  <si>
-    <t>M74</t>
-  </si>
-  <si>
-    <t>M75</t>
-  </si>
-  <si>
-    <t>M76</t>
-  </si>
-  <si>
-    <t>M77</t>
-  </si>
-  <si>
-    <t>M80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M81</t>
-  </si>
-  <si>
-    <t>M82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M83</t>
-  </si>
-  <si>
-    <t>M84</t>
-  </si>
-  <si>
-    <t>M85</t>
-  </si>
-  <si>
-    <t>M86</t>
-  </si>
-  <si>
-    <t>M87</t>
-  </si>
-  <si>
-    <t>移栽回原点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压标气缸下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合标气缸前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降气缸下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取线气缸前进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取线爪开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破真空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送线方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线材感应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送线回原点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移标前进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移标后退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升降气缸上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压标气缸上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合标气缸后位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合标气缸前位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取线气缸前位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取线气缸后位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取线爪闭位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取线爪开位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1002,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1018,13 +1016,13 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1035,22 +1033,22 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1061,22 +1059,22 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1084,22 +1082,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1107,22 +1105,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1130,22 +1128,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1156,22 +1154,22 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1182,22 +1180,22 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1208,22 +1206,22 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1234,22 +1232,22 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1260,48 +1258,48 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1312,22 +1310,22 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1335,25 +1333,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1364,22 +1362,22 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1387,25 +1385,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1416,22 +1414,22 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1442,22 +1440,22 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1468,19 +1466,19 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1491,19 +1489,19 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1511,22 +1509,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1537,16 +1535,16 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1557,16 +1555,16 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1577,16 +1575,16 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1597,48 +1595,48 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="G26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="G27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="G28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="G29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/USB线贴标机/贴标机.xlsx
+++ b/USB线贴标机/贴标机.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="319">
   <si>
     <t xml:space="preserve">报警</t>
   </si>
@@ -912,6 +912,12 @@
   </si>
   <si>
     <t xml:space="preserve">移栽动作加减速时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移栽细分/10</t>
   </si>
   <si>
     <t xml:space="preserve">HD22</t>
@@ -1154,12 +1160,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="7.5"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.63917525773196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0463917525773"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9123711340206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,17 +1817,17 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.57216494845361"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54639175257732"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.63917525773196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1855670103093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,18 +2213,18 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5927835051546"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4587628865979"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.5"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,15 +2307,22 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>295</v>
@@ -2317,26 +2330,26 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>62589567</v>
@@ -2344,16 +2357,16 @@
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>39562878</v>
@@ -2361,16 +2374,16 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>95672827</v>
@@ -2378,10 +2391,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2409,14 +2422,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7731958762887"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.639175257732"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6855670103093"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.7731958762887"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.639175257732"/>
   </cols>
   <sheetData>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>258</v>
@@ -2424,10 +2437,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2454,12 +2467,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.1855670103093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/USB线贴标机/贴标机.xlsx
+++ b/USB线贴标机/贴标机.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="330">
   <si>
     <t xml:space="preserve">报警</t>
   </si>
@@ -941,7 +941,10 @@
     <t xml:space="preserve">HD100</t>
   </si>
   <si>
-    <t xml:space="preserve">解锁密码619</t>
+    <t xml:space="preserve">解锁密码1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户输入</t>
   </si>
   <si>
     <t xml:space="preserve">D308-D309</t>
@@ -953,7 +956,7 @@
     <t xml:space="preserve">HD102</t>
   </si>
   <si>
-    <t xml:space="preserve">解锁密码627</t>
+    <t xml:space="preserve">解锁密码2</t>
   </si>
   <si>
     <t xml:space="preserve">D310-D311</t>
@@ -962,13 +965,43 @@
     <t xml:space="preserve">HD104</t>
   </si>
   <si>
-    <t xml:space="preserve">解锁密码726</t>
+    <t xml:space="preserve">解锁密码3</t>
   </si>
   <si>
     <t xml:space="preserve">D312-D313</t>
   </si>
   <si>
     <t xml:space="preserve">时钟值转换结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码1日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码3</t>
   </si>
   <si>
     <t xml:space="preserve">T30</t>
@@ -1155,17 +1188,17 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9123711340206"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.639175257732"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,16 +1851,16 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.54639175257732"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1855670103093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9123711340206"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,20 +2244,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:I65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1855670103093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3659793814433"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,47 +2388,102 @@
       <c r="H16" s="0" t="n">
         <v>62589567</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>39562878</v>
       </c>
+      <c r="I17" s="0" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>95672827</v>
       </c>
+      <c r="I18" s="0" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2422,14 +2511,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.639175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6855670103093"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.639175257732"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3659793814433"/>
   </cols>
   <sheetData>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>258</v>
@@ -2437,10 +2526,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2467,12 +2556,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.1855670103093"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9123711340206"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
